--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-I.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-I.RS0001.a205.xlsx
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-I.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-I.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,42 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +491,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +532,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1106,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1125,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'I': 350.0 ton, 1.97 COP liquid-cooled, centrifugal compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'I': 300.0-400.0 ton, 6.28 COP, 6.76 IPLV liquid-cooled, centrifugal compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1144,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>a8e91e7d-0a1a-4282-9bd3-11f390474874</t>
+          <t>8be8f696-3f57-4201-b9d2-f0b17617cc50</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1163,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1181,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1486,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>641446.7968771312</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1525,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1544,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1560,98 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1812,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1975,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2130,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2174,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2231,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2253,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2262,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>200016.5790538348</v>
+        <v>62725.19037964547</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>335171.609846716</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>535188.1889005508</v>
+        <v>397896.8002263615</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.5492473488835</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.4083836050259</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2290,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2299,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>283219.333286437</v>
+        <v>88817.570441531</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>670343.2196934321</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>953562.5529798691</v>
+        <v>759160.7901349631</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>280.0596058088781</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.5658223046721</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2327,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2336,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>411950.4681669655</v>
+        <v>129187.6486688746</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>1005514.829540148</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1417465.297707114</v>
+        <v>1134702.478209023</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.5699642688728</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.8492159246445</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2364,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2373,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>586209.9836954201</v>
+        <v>183835.4250616763</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>1340686.439386864</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1926896.423082284</v>
+        <v>1524521.86444854</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>283.0803227288674</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>291.2585644649431</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2401,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2410,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>208040.7679626085</v>
+        <v>65241.57566793502</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>302451.1426209228</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>510491.9105835314</v>
+        <v>367692.7182888578</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.4018015836767</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.4191878650992</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2438,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2447,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>294581.4185878542</v>
+        <v>92380.71989150406</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>604902.2852418456</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>899483.7038296999</v>
+        <v>697283.0051333497</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7647142784645</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.4991894596303</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2475,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2484,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>428476.9400887746</v>
+        <v>134370.349535488</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>907353.4278627685</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1335830.367951543</v>
+        <v>1041723.777398256</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.1276269732523</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.7106676995367</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2512,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2521,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>609727.3324653698</v>
+        <v>191210.4645998867</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1209804.570483691</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1819531.902949061</v>
+        <v>1401015.035083578</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.4905396680401</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>300.0536225848184</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2549,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2558,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>204625.2274293942</v>
+        <v>64170.46230718905</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>279967.1005516911</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>484592.3279810853</v>
+        <v>344137.5628588801</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.3004834464703</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.4256912309259</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2586,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2595,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>289745.0839339683</v>
+        <v>90864.04555710792</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>559934.2011033822</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>849679.2850373505</v>
+        <v>650798.2466604901</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.5620780040517</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.442590755513</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2623,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2632,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>421442.3556140436</v>
+        <v>132164.3041541177</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>839901.3016550732</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1261343.657269117</v>
+        <v>972065.6058091909</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.8236725616331</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.5892252663357</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2660,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2669,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>599717.0424696204</v>
+        <v>188071.2380982183</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1119868.402206764</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1719585.444676385</v>
+        <v>1307939.640304983</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.0852671192145</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.865594763394</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2697,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2706,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194332.7501245874</v>
+        <v>60942.74187783193</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>267719.4836390208</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>462052.2337636082</v>
+        <v>328662.2255168527</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.2452929372643</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.4411418874382</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2734,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2743,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>275171.1492435416</v>
+        <v>86293.66028023799</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>535438.9672780416</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>810610.1165215832</v>
+        <v>621732.6275582797</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.4516969856397</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.4151393053488</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2771,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2780,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>400244.1586227242</v>
+        <v>125516.5505115166</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>803158.4509170625</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>1203402.609539787</v>
+        <v>928675.001428579</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.6581010340152</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.5127443026802</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2808,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2817,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>569551.7782621351</v>
+        <v>178611.4125716676</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>1070877.934556083</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1640429.712818218</v>
+        <v>1249489.347127751</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.8645050823906</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.7339568794324</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2845,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2854,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>196154.1085017377</v>
+        <v>61513.91978466717</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>358720.6768564281</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>554874.7853581657</v>
+        <v>420234.5966410952</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.5477813665937</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.4628468574637</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2882,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2891,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>277750.1549824275</v>
+        <v>87102.43636633574</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>717441.3537128562</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>995191.5086952837</v>
+        <v>804543.7900791919</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.1677849554095</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.6809894098004</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2919,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2928,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>403995.3948438223</v>
+        <v>126692.938025194</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>1076162.030569284</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1480157.425413107</v>
+        <v>1202854.968594478</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.7877885442254</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>290.0226545982348</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2956,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2965,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>574889.8280859221</v>
+        <v>180285.4247612419</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>1434882.707425712</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2009772.535511634</v>
+        <v>1615168.132186954</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.4077921330413</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.487842422767</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2993,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +3002,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>211899.3062420783</v>
+        <v>66451.61310239063</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>331201.6746058749</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>543100.9808479531</v>
+        <v>397653.2877082656</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4235039404994</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.5097240884674</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3030,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3039,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>300045.0288752669</v>
+        <v>94094.10783693987</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>662403.3492117499</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>962448.3780870168</v>
+        <v>756497.4570486897</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.9192301032209</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.6740053549208</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3067,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3076,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>436423.914575524</v>
+        <v>136862.5203844323</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>993605.0238176248</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1430028.938393149</v>
+        <v>1130467.544202057</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.4149562659425</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.9722017679819</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3104,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3113,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>621035.9633428496</v>
+        <v>194756.8507448679</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>1324806.6984235</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1945842.661766349</v>
+        <v>1519563.549168368</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.910682428664</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.4043133276505</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3141,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3150,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>214944.6805252385</v>
+        <v>67406.64234342713</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>313919.0975118833</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>528863.7780371218</v>
+        <v>381325.7398553104</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3454548100126</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.5490032683588</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3178,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3187,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>304357.2157857937</v>
+        <v>95446.40946210969</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>627838.1950237666</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>932195.4108095602</v>
+        <v>723284.6044858763</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7631318422474</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.6724280790513</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3215,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3224,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>442696.1114485334</v>
+        <v>138829.4810474893</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>941757.2925356498</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>1384453.403984183</v>
+        <v>1080586.773583139</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1808088744822</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.9321305399616</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3252,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3261,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>629961.3675134574</v>
+        <v>197555.857099566</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>1255676.390047533</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>1885637.757560991</v>
+        <v>1453232.247147099</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5984859067171</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3281106510896</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3289,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3298,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>209161.0735055152</v>
+        <v>65592.90343683602</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>306872.9455744532</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>516034.0190799683</v>
+        <v>372465.8490112892</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.3136339751335</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.5919866168597</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3326,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3335,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>296167.7480333435</v>
+        <v>92878.1927357245</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>613745.8911489063</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>909913.6391822498</v>
+        <v>706624.0838846308</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.6994901724892</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.6926294424119</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3363,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3372,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>430784.300783941</v>
+        <v>135093.9377478424</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>920618.8367233595</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1351403.137507301</v>
+        <v>1055712.774471202</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>285.0853463698449</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.9263115729114</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3400,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3409,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>613010.7317573077</v>
+        <v>192240.1384731898</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>1227491.782297813</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1840502.51405512</v>
+        <v>1419731.920771002</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.4712025672006</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.2930330083582</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3437,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3446,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>187948.5269338606</v>
+        <v>58940.64976647399</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>371584.4796998847</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>559533.0066337453</v>
+        <v>430525.1294663586</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.4979009217087</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.4757338936657</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3474,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3483,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>266131.2214326436</v>
+        <v>83458.73931699019</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>743168.9593997693</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>1009300.180832413</v>
+        <v>826627.6987167594</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.1791351767508</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.7200212543257</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3511,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3520,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>387095.329936906</v>
+        <v>121393.0784149095</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>1114753.439099654</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>1501848.76903656</v>
+        <v>1236146.517514564</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.8603694317928</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>290.08266401256</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3548,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3557,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>550840.8524466478</v>
+        <v>172743.6670602319</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>1486337.918799539</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2037178.771246186</v>
+        <v>1659081.58585977</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.5416036868349</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.5636621683688</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3585,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3594,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>209790.5942049732</v>
+        <v>65790.32110045283</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>349266.9424245715</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>559057.5366295448</v>
+        <v>415057.2635250244</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.3969252076914</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.5540260660067</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3622,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3631,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>297059.1363054253</v>
+        <v>93157.73205857968</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>698533.8848491431</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>995593.0211545684</v>
+        <v>791691.6169077228</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.9771837487162</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.7660285492006</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3659,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3668,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>432080.850040454</v>
+        <v>135500.5355375661</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>1047800.827273715</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>1479881.677314169</v>
+        <v>1183301.362811281</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.557442289741</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.1106135248911</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3696,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3705,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>614855.7354100595</v>
+        <v>192818.7315374119</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>1397067.769698286</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>2011923.505108346</v>
+        <v>1589886.501235698</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.1377008307658</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.587780993078</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3733,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3742,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>218316.7585680433</v>
+        <v>68464.12586909538</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>337185.8303058199</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>555502.5888738632</v>
+        <v>405649.9561749153</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.3422642069159</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.6232020134848</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3770,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3779,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>309132.0084534353</v>
+        <v>96943.78423233086</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>674371.6606116398</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>983503.6690650752</v>
+        <v>771315.4448439707</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.8678617471651</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.8153401782622</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3807,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3816,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>449641.1813772371</v>
+        <v>141007.454671169</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>1011557.49091746</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1461198.672294697</v>
+        <v>1152564.945588629</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.3934592874144</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.1458939334515</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3844,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3853,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>639844.2773394487</v>
+        <v>200655.1371856099</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>1348743.32122328</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1988587.598562728</v>
+        <v>1549398.45840889</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.9190568276637</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.6148632790528</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3881,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3890,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>216705.9116612687</v>
+        <v>67958.96435009599</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>335341.1433436298</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>552047.0550048985</v>
+        <v>403300.1076937258</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.3339179193821</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.6926201292177</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3918,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3927,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>306851.0825965821</v>
+        <v>96228.48598410682</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>670682.2866872596</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>977533.3692838417</v>
+        <v>766910.7726713663</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.8511691720976</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.8815835466704</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3955,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3964,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>446323.5107094847</v>
+        <v>139967.0332959203</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>1006023.430030889</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>1452346.940740374</v>
+        <v>1145990.46332681</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>289.3684204248131</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.2083852501013</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3992,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +4001,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>635123.1959999765</v>
+        <v>199174.6062855365</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>1341364.573374519</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1976487.769374496</v>
+        <v>1540539.179660056</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.8856716775285</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.6730252395107</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4029,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4038,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>177059.1607401437</v>
+        <v>55525.74500785032</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>373763.0183770863</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>550822.17911723</v>
+        <v>429288.7633849366</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.3994481200704</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.4516352639714</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4066,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4075,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>250712.1044380154</v>
+        <v>78623.30490675681</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>747526.0367541725</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>998238.141192188</v>
+        <v>826149.3416609294</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>292.0933406845852</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.6894179624514</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4103,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4112,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>364667.7915660201</v>
+        <v>114359.8033698344</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>1121289.055131259</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>1485956.846697279</v>
+        <v>1235648.858501093</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.7872332491</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>290.0386987806851</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4140,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4149,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>518926.2221241577</v>
+        <v>162735.2403970832</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>1495052.073508345</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>2013978.295632503</v>
+        <v>1657787.313905428</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.4811258136149</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.4994777186724</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4177,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4186,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>203452.9422375534</v>
+        <v>63802.83372267227</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>356646.9460770133</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>560099.8883145667</v>
+        <v>420449.7797996855</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.3218781461102</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.5569200640329</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4214,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4223,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>288085.1523821676</v>
+        <v>90343.49109559074</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>713293.8921540265</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>1001379.044536194</v>
+        <v>803637.3832496173</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.9382007366648</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.7820929356135</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4251,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4260,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>419027.9385897728</v>
+        <v>131407.1430816723</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>1069940.83823104</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>1488968.776820813</v>
+        <v>1201347.981312712</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.5545233272195</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>299.1358430596196</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4288,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4297,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>596281.3008603691</v>
+        <v>186993.7896809171</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>1426587.784308053</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>2022869.085168422</v>
+        <v>1613581.57398897</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>295.1708459177741</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.6181704360513</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4325,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4334,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>216558.7559403882</v>
+        <v>67912.81632251074</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>349767.2989335017</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>566326.0548738899</v>
+        <v>417680.1152560124</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.2906996116648</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.6533492899543</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4362,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4371,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>306642.7131436387</v>
+        <v>96163.14133284338</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>699534.5978670034</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>1006177.311010642</v>
+        <v>795697.7391998468</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.8758436677741</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.8784944905965</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4399,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4408,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>446020.4314927671</v>
+        <v>139871.9876669096</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>1049301.896800505</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>1495322.328293272</v>
+        <v>1189173.884467415</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.4609877238834</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.2409406857155</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4436,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4445,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>634691.9109877734</v>
+        <v>199039.3553247096</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>1399069.195734007</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>2033761.10672178</v>
+        <v>1598108.551058716</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>295.0461317799926</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.7406878753114</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4473,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4482,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>218863.5429707476</v>
+        <v>68635.59743369512</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>353124.0769465516</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>571987.6199172991</v>
+        <v>421759.6743802467</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.3059125167343</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.7483413155603</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4510,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4519,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>309906.2438429109</v>
+        <v>97186.58441636183</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>706248.1538931032</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>1016154.397736014</v>
+        <v>803434.7383094651</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.9062694779129</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.9895047381001</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4547,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4556,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>450767.3284783721</v>
+        <v>141360.6143524731</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>1059372.230839655</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>1510139.559318027</v>
+        <v>1200732.845192128</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>293.5066264390916</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.3698788328129</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4584,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.08629691028823708</v>
+        <v>0.06634895676899301</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4593,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>641446.7968771312</v>
+        <v>201157.6872420289</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>1412496.307786206</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>2053943.104663338</v>
+        <v>1613653.995028235</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>295.1069834002703</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.8894635996986</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4793,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.06634895676899301</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.06634895676899301</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.06634895676899301</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.06634895676899301</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>